--- a/Lab1/Pomiar_laser.xlsx
+++ b/Lab1/Pomiar_laser.xlsx
@@ -24,15 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Wys. Kulki</t>
   </si>
   <si>
-    <t>Pomiar laserowy (w górę)</t>
+    <t>Średnia</t>
   </si>
   <si>
-    <t>Pomiar laserowy (w dół)</t>
+    <t>Pomiar w górę</t>
+  </si>
+  <si>
+    <t>Pomiar w dół</t>
+  </si>
+  <si>
+    <t>Pomiar 1</t>
+  </si>
+  <si>
+    <t>Pomiar 2</t>
   </si>
 </sst>
 </file>
@@ -86,6 +95,2519 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12078283099602805"/>
+          <c:y val="3.8636811850863574E-2"/>
+          <c:w val="0.84937376413122989"/>
+          <c:h val="0.81373909199322858"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar w górę</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13652</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15085</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17849</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21092</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22559</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25358</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar w dół</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7610</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11877</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13413</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16518</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19181</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20853</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22389</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23959</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25424</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="356198600"/>
+        <c:axId val="356197032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="356198600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rzeczywista</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> wysokość kulki</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356197032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="356197032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Pomiar czujnika laserowego</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0637339923152881E-2"/>
+              <c:y val="0.24535507191706937"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356198600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60977612394267566"/>
+          <c:y val="0.68868664488043385"/>
+          <c:w val="0.14964654759285695"/>
+          <c:h val="0.11346524195821969"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9.8301381447094016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.733072302685464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.207514123247691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.454689738804895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.588232251859583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.150267102328108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.942910307875259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.644618333442516</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.209995333984637</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.45717094954184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.246472005015391</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.922139957986431</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.484174808454952</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.848325676588274</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.322767497150494</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.225701655126556</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.018344860673722</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.580379711142228</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.941188429201958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$2:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9.8301381447094016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.846705405187976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.752981713237638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.000157328794842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.588232251859583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.26390020483062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.942910307875259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.73221136334881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.524854568895961</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.658397081950653</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.90557269750785</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.035773060488935</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.176697001683436</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.935918706494562</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.5239936295593</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84.657536142613992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89.904711758171203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.800961616000052</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>102.1102438269705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="425896280"/>
+        <c:axId val="425894320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="425896280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425894320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="425894320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425896280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,26 +2873,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>10</v>
       </c>
@@ -380,8 +2911,20 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <f>(B2+C2)/2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>B2*$K$7 +$L$7</f>
+        <v>9.8301381447094016</v>
+      </c>
+      <c r="F2">
+        <f>C2*$K$7 +$L$7</f>
+        <v>9.8301381447094016</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>15</v>
       </c>
@@ -391,8 +2934,20 @@
       <c r="C3">
         <v>1501</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D20" si="0">(B3+C3)/2</f>
+        <v>1484</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E20" si="1">B3*$K$7 +$L$7</f>
+        <v>14.733072302685464</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F20" si="2">C3*$K$7 +$L$7</f>
+        <v>14.846705405187976</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
@@ -402,8 +2957,20 @@
       <c r="C4">
         <v>2969</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3037</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>20.207514123247691</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>19.752981713237638</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>25</v>
       </c>
@@ -413,8 +2980,20 @@
       <c r="C5">
         <v>4539</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4607</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>25.454689738804895</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>25.000157328794842</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>30</v>
       </c>
@@ -424,8 +3003,20 @@
       <c r="C6">
         <v>6211</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>6211</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>30.588232251859583</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>30.588232251859583</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>35</v>
       </c>
@@ -435,8 +3026,27 @@
       <c r="C7">
         <v>7610</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7593</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>35.150267102328108</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>35.26390020483062</v>
+      </c>
+      <c r="K7">
+        <f t="array" ref="K7:L9">LINEST(A2:A20,D2:D20,TRUE,TRUE)</f>
+        <v>3.3421500736033139E-3</v>
+      </c>
+      <c r="L7">
+        <v>9.8301381447094016</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>40</v>
       </c>
@@ -446,8 +3056,26 @@
       <c r="C8">
         <v>9010</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9010</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>39.942910307875259</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>39.942910307875259</v>
+      </c>
+      <c r="K8">
+        <v>1.0857679535529512E-5</v>
+      </c>
+      <c r="L8">
+        <v>0.17160396924543522</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>45</v>
       </c>
@@ -457,8 +3085,26 @@
       <c r="C9">
         <v>10443</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>10579.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>45.644618333442516</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>44.73221136334881</v>
+      </c>
+      <c r="K9">
+        <v>0.99982061209773965</v>
+      </c>
+      <c r="L9">
+        <v>0.38777476840600295</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>50</v>
       </c>
@@ -468,8 +3114,20 @@
       <c r="C10">
         <v>11877</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>11979.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>50.209995333984637</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>49.524854568895961</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>55</v>
       </c>
@@ -479,8 +3137,20 @@
       <c r="C11">
         <v>13413</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>13532.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>55.45717094954184</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>54.658397081950653</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>60</v>
       </c>
@@ -490,8 +3160,20 @@
       <c r="C12">
         <v>14983</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>15034</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>60.246472005015391</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>59.90557269750785</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>65</v>
       </c>
@@ -501,8 +3183,20 @@
       <c r="C13">
         <v>16518</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>16501</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>64.922139957986431</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>65.035773060488935</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>70</v>
       </c>
@@ -512,8 +3206,20 @@
       <c r="C14">
         <v>17757</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>17803</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>69.484174808454952</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>69.176697001683436</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>75</v>
       </c>
@@ -523,8 +3229,20 @@
       <c r="C15">
         <v>19181</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>19317.5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>74.848325676588274</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>73.935918706494562</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>80</v>
       </c>
@@ -534,8 +3252,20 @@
       <c r="C16">
         <v>20853</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>20972.5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>80.322767497150494</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>79.5239936295593</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>85</v>
       </c>
@@ -545,8 +3275,20 @@
       <c r="C17">
         <v>22389</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>22474</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>85.225701655126556</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>84.657536142613992</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>90</v>
       </c>
@@ -556,8 +3298,20 @@
       <c r="C18">
         <v>23959</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>23976</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>90.018344860673722</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>89.904711758171203</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>95</v>
       </c>
@@ -567,8 +3321,20 @@
       <c r="C19">
         <v>25424</v>
       </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>25391</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>94.580379711142228</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>94.800961616000052</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>100</v>
       </c>
@@ -577,9 +3343,22 @@
       </c>
       <c r="C20">
         <v>27611</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>27286.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>99.941188429201958</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>102.1102438269705</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>